--- a/Data/EC/NIT-9006906709.xlsx
+++ b/Data/EC/NIT-9006906709.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C406046E-5950-4CF4-AC8A-FC44DCDD134E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{178E0FAF-8BB8-4121-BB36-64F926EED5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A4E8B3A0-674C-487D-98B0-C27036CD2A82}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{277043B9-6BDB-4E02-831B-EE3CB1F0F568}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,46 +71,46 @@
     <t>LINDA JOSEFA GARCIA GAVIRIA</t>
   </si>
   <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
     <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -209,7 +209,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -222,9 +224,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -424,23 +424,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,10 +468,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520C0DF2-E188-905A-DB1C-75171B2BDADF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F394203B-33CC-DD38-C90D-6A22E64A3BD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29A9121-A572-4D55-86D1-59217A2DE141}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD4E369-55E9-478A-9530-1F793176EE4A}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>11458</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1352,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="24">
-        <v>31249</v>
+        <v>11458</v>
       </c>
       <c r="G29" s="24">
         <v>781242</v>
